--- a/device_list.xlsx
+++ b/device_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fortinet-my.sharepoint.com/personal/nnugera_fortinet-us_com/Documents/Documents/Tools/Excel to Model Device/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysnuger\Documents\Tools\excel_to_FMG_model_device\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{283F972F-294D-45B3-9C31-F8F6AA25F055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{458C5A6E-B255-4DC3-955F-494C2A503EB4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A56640-5B4A-4F63-82C7-A63A33D1B1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="standalone" sheetId="1" r:id="rId1"/>
@@ -73,12 +73,6 @@
     <t>FG100FTK21049011</t>
   </si>
   <si>
-    <t>APAC</t>
-  </si>
-  <si>
-    <t>XOM_PreRun_Template</t>
-  </si>
-  <si>
     <t>port12</t>
   </si>
   <si>
@@ -115,15 +109,9 @@
     <t>ha_mgmt_ip</t>
   </si>
   <si>
-    <t>EMEA</t>
-  </si>
-  <si>
     <t>FG100FTK21051536</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>192.168.3.1/24</t>
   </si>
   <si>
@@ -139,9 +127,6 @@
     <t>FG100FTK21056709</t>
   </si>
   <si>
-    <t>SA</t>
-  </si>
-  <si>
     <t>192.168.4.1/24</t>
   </si>
   <si>
@@ -149,6 +134,21 @@
   </si>
   <si>
     <t>device_group</t>
+  </si>
+  <si>
+    <t>EAME</t>
+  </si>
+  <si>
+    <t>TEST-FGT-HA2</t>
+  </si>
+  <si>
+    <t>device_name</t>
+  </si>
+  <si>
+    <t>MITAS-EAME</t>
+  </si>
+  <si>
+    <t>initial-setup</t>
   </si>
 </sst>
 </file>
@@ -201,10 +201,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,22 +469,22 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -496,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -505,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -514,56 +510,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -577,28 +573,28 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -607,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -619,18 +615,18 @@
         <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -639,54 +635,54 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
